--- a/data/hotels_by_city/Houston/Houston_shard_544.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_544.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="285">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d7767210-Reviews-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Residence-Inn-By-Marriott-Houston-NorthwestCypress.h9231634.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,742 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r585669195-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>7767210</t>
+  </si>
+  <si>
+    <t>585669195</t>
+  </si>
+  <si>
+    <t>06/06/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great family hotel </t>
+  </si>
+  <si>
+    <t>We stayed here for the weekend and it was perfect for our family. With a full kitchen and living room we had plenty of space.  The indoor pool was perfect for cooling off during the day. They had great common space with a courtyard and basketball court. Our families really enjoyed themselves. Very impressed with the spacious suites. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Pamela A, Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded June 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here for the weekend and it was perfect for our family. With a full kitchen and living room we had plenty of space.  The indoor pool was perfect for cooling off during the day. They had great common space with a courtyard and basketball court. Our families really enjoyed themselves. Very impressed with the spacious suites. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r565055000-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>565055000</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can’t Complain </t>
+  </si>
+  <si>
+    <t>My wife and I stayed three nights visiting family.  We found the room to be clean and comfortable.  The hotel is located close to the highway and has food and shopping nearby.  We wanted to swim but the pool was closed.  If I new that ahead of time, I may have stayed elsewhere.  But, it was overall a good value and I can’t complain.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Pamela A, General Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded March 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2018</t>
+  </si>
+  <si>
+    <t>My wife and I stayed three nights visiting family.  We found the room to be clean and comfortable.  The hotel is located close to the highway and has food and shopping nearby.  We wanted to swim but the pool was closed.  If I new that ahead of time, I may have stayed elsewhere.  But, it was overall a good value and I can’t complain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r557620734-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>557620734</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>Nicer mid-level business travel (one up from Holiday Inn Express.)</t>
+  </si>
+  <si>
+    <t>decent place, like most Marriotts. Spacious room, decent amenities. Perfectly fine for a one-night business stay. Breakfast good (chobani was most welcome.) Service at the desk at check in slow and confused; granted it was after 1 am and I'm sure the staffer was tired, but we'd just flown in and were exhausted. And the slow, painstaking pace of check in was a little tough to take, but we grinned and bore it. The hotel is fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Pamela A, General Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded February 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2018</t>
+  </si>
+  <si>
+    <t>decent place, like most Marriotts. Spacious room, decent amenities. Perfectly fine for a one-night business stay. Breakfast good (chobani was most welcome.) Service at the desk at check in slow and confused; granted it was after 1 am and I'm sure the staffer was tired, but we'd just flown in and were exhausted. And the slow, painstaking pace of check in was a little tough to take, but we grinned and bore it. The hotel is fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r518149607-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>518149607</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t>Hurricane Harvey</t>
+  </si>
+  <si>
+    <t>My family and I planned a vacation in Houston , only to end up being stranded by Hurricane Harvey. The hotel is brand new, very clean and offers necessities for extended stay. Breakfast can be improved but considering each room has its own kitchen, you can pretty cook whatever you want. We enjoyed our stay!</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r504002114-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504002114</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>We actually called it home!</t>
+  </si>
+  <si>
+    <t>Several of us left our families back in Pittsburgh and headed to Texas for a girl's trip. We stayed 4 nights at this hotel. 2 in room 306 and 2 in room 406. This was the nicest hotel we have stayed at in a long time. The hotel was clean, the staff was helpful and friendly, and the rooms were big and even had a couch and a fully stocked kitchen. It had an area outside to hangout late night and we felt completely safe. The BEST part is they had netflix for those who have their own accounts already. After being in the Texas heat all day, we couldn't wait to go "home" and lay in our cold comfy rooms! Thanks again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Pamela A, General Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Several of us left our families back in Pittsburgh and headed to Texas for a girl's trip. We stayed 4 nights at this hotel. 2 in room 306 and 2 in room 406. This was the nicest hotel we have stayed at in a long time. The hotel was clean, the staff was helpful and friendly, and the rooms were big and even had a couch and a fully stocked kitchen. It had an area outside to hangout late night and we felt completely safe. The BEST part is they had netflix for those who have their own accounts already. After being in the Texas heat all day, we couldn't wait to go "home" and lay in our cold comfy rooms! Thanks again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r500344285-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>500344285</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Awesome Lobby Space and Outdoor Sitting Area</t>
+  </si>
+  <si>
+    <t>Our entire 16U baseball team stayed here for 5-6 days in late June/early July, 2017.  We had about 17 rooms altogether.  We chose the hotel based on each room having a full sized fridge and kitchenette.  Plus having queen sized beds is way better than sharing double beds!  Since we had so many hungry teenage boys to feed we opted to order in pizza one night in the lobby and another night we used the grill for hotdogs and brats.  There was plenty of seating along with indoor and outdoor space, plus a few TVs to watch sports games or whatever else they wanted.  We also played cards for hours at the tall tables.  Staff was accommodating and put up with our craziness.  We would stay here again anytime if given the chance.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our entire 16U baseball team stayed here for 5-6 days in late June/early July, 2017.  We had about 17 rooms altogether.  We chose the hotel based on each room having a full sized fridge and kitchenette.  Plus having queen sized beds is way better than sharing double beds!  Since we had so many hungry teenage boys to feed we opted to order in pizza one night in the lobby and another night we used the grill for hotdogs and brats.  There was plenty of seating along with indoor and outdoor space, plus a few TVs to watch sports games or whatever else they wanted.  We also played cards for hours at the tall tables.  Staff was accommodating and put up with our craziness.  We would stay here again anytime if given the chance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r485135605-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>485135605</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Great accommodations!</t>
+  </si>
+  <si>
+    <t>Hotel is only a couple of years old, so it still seems new!!  Staff was very accommodating and the hotel suite was great!!  Brought 3 of our grandchildren and they loved the indoor pool and the breakfast!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Pamela A, General Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Hotel is only a couple of years old, so it still seems new!!  Staff was very accommodating and the hotel suite was great!!  Brought 3 of our grandchildren and they loved the indoor pool and the breakfast!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r484781120-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484781120</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Great hotel, super clean and agreable stuff</t>
+  </si>
+  <si>
+    <t>spacious rooms, nice amenities good breakfast and afternoon mix snack New and neat, clean well maintained and friendly atmosphere I came with my parents to a family wedding. we enjoyed our stay here !!MoreShow less</t>
+  </si>
+  <si>
+    <t>spacious rooms, nice amenities good breakfast and afternoon mix snack New and neat, clean well maintained and friendly atmosphere I came with my parents to a family wedding. we enjoyed our stay here !!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r475515129-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>475515129</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t>5 nights family visit in 2 BR suite</t>
+  </si>
+  <si>
+    <t>Excellent stay. Can't complain. Giving it a 5 due to the cleanliness of the rooms. I personally can not stand even a small grout/shower/wall stain in the bathroom and the room has been keeping up very well. We stayed in a two bedroom/full size kitchen suite with two small kids and grandparents, we all loved it. This place is actually indeed a bit further away from where our family lives but it's one of the very few residence inns that has two queen size beds in one room and a king size in another room. We got enough beds for a party of six without pulling out the sofa bed in living room. Free breakfast, plenty of selection to choose from. Good wifi speed, plenty of parking. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Pamela A, General Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded May 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2017</t>
+  </si>
+  <si>
+    <t>Excellent stay. Can't complain. Giving it a 5 due to the cleanliness of the rooms. I personally can not stand even a small grout/shower/wall stain in the bathroom and the room has been keeping up very well. We stayed in a two bedroom/full size kitchen suite with two small kids and grandparents, we all loved it. This place is actually indeed a bit further away from where our family lives but it's one of the very few residence inns that has two queen size beds in one room and a king size in another room. We got enough beds for a party of six without pulling out the sofa bed in living room. Free breakfast, plenty of selection to choose from. Good wifi speed, plenty of parking. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r451656408-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>451656408</t>
+  </si>
+  <si>
+    <t>01/13/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great staff and nice room </t>
+  </si>
+  <si>
+    <t>I was here in late December for three nights. The staff was great. I had a nice large room with good service. Nice complex with a pool and basketball court. Plenty of parking and easy access to northwest and downtown Houston. Good internet service and plenty of tv channels.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Pamela A, General Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded January 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2017</t>
+  </si>
+  <si>
+    <t>I was here in late December for three nights. The staff was great. I had a nice large room with good service. Nice complex with a pool and basketball court. Plenty of parking and easy access to northwest and downtown Houston. Good internet service and plenty of tv channels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r449414770-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>449414770</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Nice Room</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay &amp; staff was very accommodating, we were able to bring our pets &amp; got on the first floor so it was easy to take them outside, we got there early &amp; were provided a room, we were near a door so that was good also, spacious room &amp; had a full kitchen, ample parkingMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay &amp; staff was very accommodating, we were able to bring our pets &amp; got on the first floor so it was easy to take them outside, we got there early &amp; were provided a room, we were near a door so that was good also, spacious room &amp; had a full kitchen, ample parkingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r445053734-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>445053734</t>
+  </si>
+  <si>
+    <t>12/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Careless and Unapologetic </t>
+  </si>
+  <si>
+    <t>Good Afternoon.  I booked a room through Expedia for 12/17-12/18.  I received room 430. We realized that the room was not warming up Sunday morning. We just thought it it was going to take a little bit to warm up. It never really did so I turned on the stove to warm the room up. I didn't want to complain because I liked my room and we were leaving soon anyway.  But when I got ready to take my daghter a bath the water stopped working. I called the front desk at 11 am. Rasheeda stated that she would try to figure something out and never called back. So I brushed my teeth with a cup of apple juice and cleaned my daughter up. I called back at 11:40 because I hadn't heard from Rasheeda. I asked is a supervisor was available.  She said that he left and would be back. I asked for the corporate office number and she stated that she didn't have it but could google it. I said I would hold...she said she couldn't find it. (Even though I did) She said she will call me back with the info....even though it was almost check out time!! Dewayne Scott called back and tried to help. I told him that we had no water and about the room never warming up. He became accusatory and argumentative.  He says that we should have called earlier so he could...Good Afternoon.  I booked a room through Expedia for 12/17-12/18.  I received room 430. We realized that the room was not warming up Sunday morning. We just thought it it was going to take a little bit to warm up. It never really did so I turned on the stove to warm the room up. I didn't want to complain because I liked my room and we were leaving soon anyway.  But when I got ready to take my daghter a bath the water stopped working. I called the front desk at 11 am. Rasheeda stated that she would try to figure something out and never called back. So I brushed my teeth with a cup of apple juice and cleaned my daughter up. I called back at 11:40 because I hadn't heard from Rasheeda. I asked is a supervisor was available.  She said that he left and would be back. I asked for the corporate office number and she stated that she didn't have it but could google it. I said I would hold...she said she couldn't find it. (Even though I did) She said she will call me back with the info....even though it was almost check out time!! Dewayne Scott called back and tried to help. I told him that we had no water and about the room never warming up. He became accusatory and argumentative.  He says that we should have called earlier so he could have done something. We are out of town in a hotel! We expect the water and heat to work!!!! We didn't think that we would have to do hourly maintenance checks on the water and heat! It worked....then it all of a sudden stopped! ! We couldn't forsee that!!!! Then he says he would have had us brush our teeth and bathe in another room! WHAT? It's cold!! No one wants to drag a kid down the hall an hour before check out...to rush bathe, get ready then trek back to our main room all before check out!!! That is is crazy!!! I told him that,  that is a serious inconvenience and that wouldn't work.! I asked why it couldn't be fixed. In a very rude and condescending manner he says because the maintenance people aren't there because it's Sunday. It would take hours ma'am!! It's not our fault that the maintenance people aren't here!!! We shouldn't have to sufofficei told him we were coming down to check out. I hung up the phone and went downstairs.  He was sitting in his offout as if ..oh well. I asked for the corporate info and again..HE NOW DOESN'T HAVE IT!  I asked for his card and was given a sales card because that's all he had. My daughters dad was very angry so I told him to leave. Check in was great but Rasheeda lack of customer service skills, promptness or ounce of compassion ruined mt stay. Along with Dewayne Scott's rude, careless mentality. He asked what could he do. After everything,  I want my money back! He says I paid expedia. So what!!!! I can still get my money back! As I was leaving I told him that Rasheeda never followed up with me and ignored my NO WATER notification.  She started arguing that it was over 30 mins. She says..HE WASN'T EVEN GONE THAT LONG!!! She mixed my firat call up with my second call. Proving how lazy and uncaring she is. There was a customer in front of her. How unprofessional to argue with a customer in front of other customers. Great Hotel if no issues arise! I booked the hotel for 12/31 thru 01/02/17 buy cancelled my booking after the wonderful treatment by the staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Pamela A, General Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded December 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2016</t>
+  </si>
+  <si>
+    <t>Good Afternoon.  I booked a room through Expedia for 12/17-12/18.  I received room 430. We realized that the room was not warming up Sunday morning. We just thought it it was going to take a little bit to warm up. It never really did so I turned on the stove to warm the room up. I didn't want to complain because I liked my room and we were leaving soon anyway.  But when I got ready to take my daghter a bath the water stopped working. I called the front desk at 11 am. Rasheeda stated that she would try to figure something out and never called back. So I brushed my teeth with a cup of apple juice and cleaned my daughter up. I called back at 11:40 because I hadn't heard from Rasheeda. I asked is a supervisor was available.  She said that he left and would be back. I asked for the corporate office number and she stated that she didn't have it but could google it. I said I would hold...she said she couldn't find it. (Even though I did) She said she will call me back with the info....even though it was almost check out time!! Dewayne Scott called back and tried to help. I told him that we had no water and about the room never warming up. He became accusatory and argumentative.  He says that we should have called earlier so he could...Good Afternoon.  I booked a room through Expedia for 12/17-12/18.  I received room 430. We realized that the room was not warming up Sunday morning. We just thought it it was going to take a little bit to warm up. It never really did so I turned on the stove to warm the room up. I didn't want to complain because I liked my room and we were leaving soon anyway.  But when I got ready to take my daghter a bath the water stopped working. I called the front desk at 11 am. Rasheeda stated that she would try to figure something out and never called back. So I brushed my teeth with a cup of apple juice and cleaned my daughter up. I called back at 11:40 because I hadn't heard from Rasheeda. I asked is a supervisor was available.  She said that he left and would be back. I asked for the corporate office number and she stated that she didn't have it but could google it. I said I would hold...she said she couldn't find it. (Even though I did) She said she will call me back with the info....even though it was almost check out time!! Dewayne Scott called back and tried to help. I told him that we had no water and about the room never warming up. He became accusatory and argumentative.  He says that we should have called earlier so he could have done something. We are out of town in a hotel! We expect the water and heat to work!!!! We didn't think that we would have to do hourly maintenance checks on the water and heat! It worked....then it all of a sudden stopped! ! We couldn't forsee that!!!! Then he says he would have had us brush our teeth and bathe in another room! WHAT? It's cold!! No one wants to drag a kid down the hall an hour before check out...to rush bathe, get ready then trek back to our main room all before check out!!! That is is crazy!!! I told him that,  that is a serious inconvenience and that wouldn't work.! I asked why it couldn't be fixed. In a very rude and condescending manner he says because the maintenance people aren't there because it's Sunday. It would take hours ma'am!! It's not our fault that the maintenance people aren't here!!! We shouldn't have to sufofficei told him we were coming down to check out. I hung up the phone and went downstairs.  He was sitting in his offout as if ..oh well. I asked for the corporate info and again..HE NOW DOESN'T HAVE IT!  I asked for his card and was given a sales card because that's all he had. My daughters dad was very angry so I told him to leave. Check in was great but Rasheeda lack of customer service skills, promptness or ounce of compassion ruined mt stay. Along with Dewayne Scott's rude, careless mentality. He asked what could he do. After everything,  I want my money back! He says I paid expedia. So what!!!! I can still get my money back! As I was leaving I told him that Rasheeda never followed up with me and ignored my NO WATER notification.  She started arguing that it was over 30 mins. She says..HE WASN'T EVEN GONE THAT LONG!!! She mixed my firat call up with my second call. Proving how lazy and uncaring she is. There was a customer in front of her. How unprofessional to argue with a customer in front of other customers. Great Hotel if no issues arise! I booked the hotel for 12/31 thru 01/02/17 buy cancelled my booking after the wonderful treatment by the staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r397727141-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>397727141</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Perfect hotel for the family</t>
+  </si>
+  <si>
+    <t>Great new hotel just off the freeway. I picked this hotel for the families on my son's 5th grade basketball team as we were in Houston for a tournament just down the road at the Texas Tornados facility. Could not have picked a better hotel. Not only did they have a pool, but also a basketball court. The boys wanted to stay at the hotel and play versus going to the tournament. Rooms are very spacious and clean. Unfortunately we were only there one night, but everyone wanted to stay longer. I was a hero for finding and booking the hotel rooms for our team. We will definitely be back anytime we have to travel to Houston for a tournament.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Pamela A, General Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded August 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2016</t>
+  </si>
+  <si>
+    <t>Great new hotel just off the freeway. I picked this hotel for the families on my son's 5th grade basketball team as we were in Houston for a tournament just down the road at the Texas Tornados facility. Could not have picked a better hotel. Not only did they have a pool, but also a basketball court. The boys wanted to stay at the hotel and play versus going to the tournament. Rooms are very spacious and clean. Unfortunately we were only there one night, but everyone wanted to stay longer. I was a hero for finding and booking the hotel rooms for our team. We will definitely be back anytime we have to travel to Houston for a tournament.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r397686175-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>397686175</t>
+  </si>
+  <si>
+    <t>A nice relaxing place to stay during a family wedding.</t>
+  </si>
+  <si>
+    <t>we stayed here twice while we were in Houston in April.  This is a new property hence very clean. Despite our  initial disappointing check in experience our rest of the stay both times was a very nice experience.  The rooms are very well furnished with very comfortable bed and pillows.  The showers are fantastic and the toiletries provided are Paul Mitchell make.  Need I say more? Overall the stay was very pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>we stayed here twice while we were in Houston in April.  This is a new property hence very clean. Despite our  initial disappointing check in experience our rest of the stay both times was a very nice experience.  The rooms are very well furnished with very comfortable bed and pillows.  The showers are fantastic and the toiletries provided are Paul Mitchell make.  Need I say more? Overall the stay was very pleasant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r392228180-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>392228180</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>Great new Residence Inn!</t>
+  </si>
+  <si>
+    <t>I have stayed at many extended stay hotels and this particular Residence Inn is the I have stayed in so far.  Many Residence Inn's as well as other branded extended stay hotels get run down very quickly, this property is not at all.  It has been open for over a year and it still looks brand new.  The location is very convenient to the highway without the loud noise.  Every member of the staff was also very friendly and willing to go out of there way to answer a question or solve a problem.  Definitely the best place to stay in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at many extended stay hotels and this particular Residence Inn is the I have stayed in so far.  Many Residence Inn's as well as other branded extended stay hotels get run down very quickly, this property is not at all.  It has been open for over a year and it still looks brand new.  The location is very convenient to the highway without the loud noise.  Every member of the staff was also very friendly and willing to go out of there way to answer a question or solve a problem.  Definitely the best place to stay in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r380417057-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380417057</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>No Complaints</t>
+  </si>
+  <si>
+    <t>We checked into the Residence Inn on Barker Cypress Rd, Houston for 12 days. The desk staff were very friendly and helpful. Noor was our favourite. We were on the fourth floor, facing south. The room was tidied each day and freshened with clean towels, and the trash emptied. Friendly cleaning staff too.The breakfasts were good with hot and cold items, yogurt, oatmeal, fruit, scrambled eggs, sausage, biscuits, waffles with toppings, cereals, toast, muffins bagels, coffee and juices.The computers and printers in the lobby were handy ( for printing boarding passes ) when our computer developed a problem. The kitchenette with sink, two burner cooktop, full fridge and microwave was good for snacks and lunches.We would recommend this hotel. You do need a vehicle, but we did see a sign up that a Mall is planned for across the street, which will be nice. There is a Subway and Mexican restaurant you can walk to.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Pamela A, Operations Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2016</t>
+  </si>
+  <si>
+    <t>We checked into the Residence Inn on Barker Cypress Rd, Houston for 12 days. The desk staff were very friendly and helpful. Noor was our favourite. We were on the fourth floor, facing south. The room was tidied each day and freshened with clean towels, and the trash emptied. Friendly cleaning staff too.The breakfasts were good with hot and cold items, yogurt, oatmeal, fruit, scrambled eggs, sausage, biscuits, waffles with toppings, cereals, toast, muffins bagels, coffee and juices.The computers and printers in the lobby were handy ( for printing boarding passes ) when our computer developed a problem. The kitchenette with sink, two burner cooktop, full fridge and microwave was good for snacks and lunches.We would recommend this hotel. You do need a vehicle, but we did see a sign up that a Mall is planned for across the street, which will be nice. There is a Subway and Mexican restaurant you can walk to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r369685439-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>369685439</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>Feels like home</t>
+  </si>
+  <si>
+    <t>We had a great 2 night stay here. The location is about a 35-40 minute drive from Hobby Airport. Everything inside is clean and new and the staff is very helpful. The room we were in had a kitchen, spacious living area, two beds, a sofa, spacious bathroom and a flat screen tv. Breakfast was great and the lounge area is comfortable with tvs and computers in various locations. Would recommend staying here if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a great 2 night stay here. The location is about a 35-40 minute drive from Hobby Airport. Everything inside is clean and new and the staff is very helpful. The room we were in had a kitchen, spacious living area, two beds, a sofa, spacious bathroom and a flat screen tv. Breakfast was great and the lounge area is comfortable with tvs and computers in various locations. Would recommend staying here if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r369363861-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>369363861</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel in the suburbs of Houston</t>
+  </si>
+  <si>
+    <t>I stayed for 2 nights at the residence inn near the suburbs of Houston specifically in Cypress Texas. This hotel was perfectly located near our client.Pros:1. Very modern and clean hotel.2. Basically a nice apartment with a kitchen and desk.3. Has a cool basketball court.4. Close to the highway.Cons:1. Breakfast was ok. Nothing special.Highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed for 2 nights at the residence inn near the suburbs of Houston specifically in Cypress Texas. This hotel was perfectly located near our client.Pros:1. Very modern and clean hotel.2. Basically a nice apartment with a kitchen and desk.3. Has a cool basketball court.4. Close to the highway.Cons:1. Breakfast was ok. Nothing special.Highly recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r349536223-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>349536223</t>
+  </si>
+  <si>
+    <t>02/20/2016</t>
+  </si>
+  <si>
+    <t>Great hotel, service lacks consistency.</t>
+  </si>
+  <si>
+    <t>I do enjoy this place especially the end units but, the housekeeping is lacking.One day the room wasn't serviced at all, then we had to request toilet paper be delivered because they didn't replenish over the course of the stay. There are some characters at breakfast, folks coughing/sneezing on the food. This is a huge turnoff for breakfast. Also one day there was gnats in the Orange Juice.The Weight room is very nice.The Kitchen in the suite is very nice as well.There are some HUGE dogs staying here. One night I found poop just in front of the front entrance to the hotel. I'd wish folks who insist on having their dogs would clean up behind them.I recommend you stay at the SpringHill suites down the street it's nicer if you can do without the kitchen.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Miranda W, Operations Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded February 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2016</t>
+  </si>
+  <si>
+    <t>I do enjoy this place especially the end units but, the housekeeping is lacking.One day the room wasn't serviced at all, then we had to request toilet paper be delivered because they didn't replenish over the course of the stay. There are some characters at breakfast, folks coughing/sneezing on the food. This is a huge turnoff for breakfast. Also one day there was gnats in the Orange Juice.The Weight room is very nice.The Kitchen in the suite is very nice as well.There are some HUGE dogs staying here. One night I found poop just in front of the front entrance to the hotel. I'd wish folks who insist on having their dogs would clean up behind them.I recommend you stay at the SpringHill suites down the street it's nicer if you can do without the kitchen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r339449367-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339449367</t>
+  </si>
+  <si>
+    <t>01/12/2016</t>
+  </si>
+  <si>
+    <t>Residence Inn Cypress</t>
+  </si>
+  <si>
+    <t>My in laws found this place for my husband and myself.  I really loved my stay here, the continental breakfast was awesome and their nightly mixers were interesting.  Although admittedly, I was slightly disappointed that we did not meet many people during the mixers.  This is a great place to stay for business or pleasure.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Miranda W, Operation Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded January 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2016</t>
+  </si>
+  <si>
+    <t>My in laws found this place for my husband and myself.  I really loved my stay here, the continental breakfast was awesome and their nightly mixers were interesting.  Although admittedly, I was slightly disappointed that we did not meet many people during the mixers.  This is a great place to stay for business or pleasure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r331867267-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331867267</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>Staff Stay</t>
+  </si>
+  <si>
+    <t>I recently stayed with staff at Residence Inn Cypress.  This hotel is new or newly renovated and is very nice. Check in was great, rooms were clean and spacious.  Some staff had mini suites with sleeper sofas and kitchenettes.  There is a nice fitness room and an indoor pool. There was a free hot breakfast that well very well stocked.  The area was very congested, our event was at Berry Center and even though the hotel is 4-5 miles from the venue, it took us about 15 mins to get there.   I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Miranda W, Director of Sales at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded January 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2016</t>
+  </si>
+  <si>
+    <t>I recently stayed with staff at Residence Inn Cypress.  This hotel is new or newly renovated and is very nice. Check in was great, rooms were clean and spacious.  Some staff had mini suites with sleeper sofas and kitchenettes.  There is a nice fitness room and an indoor pool. There was a free hot breakfast that well very well stocked.  The area was very congested, our event was at Berry Center and even though the hotel is 4-5 miles from the venue, it took us about 15 mins to get there.   I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r311542502-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>311542502</t>
+  </si>
+  <si>
+    <t>09/18/2015</t>
+  </si>
+  <si>
+    <t>Wedding trip</t>
+  </si>
+  <si>
+    <t>We had an amazing time at the hotel!  The rooms were large and clean with modern furniture.  Hot breakfast daily with excellent choices!  The pool was covered which made it enjoyable especially in July and August!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Miranda W, General Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded November 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2015</t>
+  </si>
+  <si>
+    <t>We had an amazing time at the hotel!  The rooms were large and clean with modern furniture.  Hot breakfast daily with excellent choices!  The pool was covered which made it enjoyable especially in July and August!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r309861902-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>309861902</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t>Perfect!</t>
+  </si>
+  <si>
+    <t>This place was just awesome!! I mean I brung my family here to get away for a few days and it actually felt like we was home away from home! We got food and cooked and everything was so clean and I was really impressed with the Netflix!!! We watched Netflix all day!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>This place was just awesome!! I mean I brung my family here to get away for a few days and it actually felt like we was home away from home! We got food and cooked and everything was so clean and I was really impressed with the Netflix!!! We watched Netflix all day!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r309353540-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>309353540</t>
+  </si>
+  <si>
+    <t>09/11/2015</t>
+  </si>
+  <si>
+    <t>Excellent hotel!</t>
+  </si>
+  <si>
+    <t>We've stayed in this hotel a number of times over the past few months in different rooms. This property is pet friendly, but you'd never know it when you first open the door. You are welcomed with a nicely furnished, comfortable, quiet, clean room -- every time!
+In the one bedroom suites, there are two TVs (one in the living area and one in the bedroom area) - and on each you can set up netflix, hulu plus, and pandora (built-in to the TVs) - as well as access an an additional HDMI connection that allows you to connect a chromecast or laptop to watch your own media (or use as an additional monitor).
+There is a full kitchen with full sized microwave, stove/oven, and fridge as well as furnishings (dishes, bowls, pots, pans, etc.) and a mini dish washer (with some dishwasher detergent) so you can make your own meals. (There is a coffee maker, and you're provided with coffee, tea, and even microwave popcorn.)
+The linens are very white and very clean. Very fresh smelling as well.
+There is an ample and tasty morning breakfast every day. There are a number of juices (apple, orange, cranberry) along with scrambled eggs, potatoes, sausages and/or bacon, sometimes egg muffins, cereals, oatmeal, yogurt, and yummy waffles (with various toppings besides syrup like berries, chocolate chips, whipped cream, etc.).
+During the day, they have complimentary coffee, tea, and hot chocolate. Sometimes there...We've stayed in this hotel a number of times over the past few months in different rooms. This property is pet friendly, but you'd never know it when you first open the door. You are welcomed with a nicely furnished, comfortable, quiet, clean room -- every time!In the one bedroom suites, there are two TVs (one in the living area and one in the bedroom area) - and on each you can set up netflix, hulu plus, and pandora (built-in to the TVs) - as well as access an an additional HDMI connection that allows you to connect a chromecast or laptop to watch your own media (or use as an additional monitor).There is a full kitchen with full sized microwave, stove/oven, and fridge as well as furnishings (dishes, bowls, pots, pans, etc.) and a mini dish washer (with some dishwasher detergent) so you can make your own meals. (There is a coffee maker, and you're provided with coffee, tea, and even microwave popcorn.)The linens are very white and very clean. Very fresh smelling as well.There is an ample and tasty morning breakfast every day. There are a number of juices (apple, orange, cranberry) along with scrambled eggs, potatoes, sausages and/or bacon, sometimes egg muffins, cereals, oatmeal, yogurt, and yummy waffles (with various toppings besides syrup like berries, chocolate chips, whipped cream, etc.).During the day, they have complimentary coffee, tea, and hot chocolate. Sometimes there are cookies or other snacks during the afternoons too.On Mon, Tues, and Wed evenings, there is a complimentary happy hour (with red and white wines as well as draft beer) - along various food. (I've seen smores, popcorn, pretzels, frito pie, Italian sausages, chips, etc.)There is an indoor pool (very nice so you can use it year round!), as well as an outdoor grill and firepit. There is an exercise room (new treadmills, eliptical, bike, and weights too) as well as a laundry room with 4 commercial-sized washers and 8 dryers (useful if you're staying a long time).The location is very convenient to hwy 290 as well as to the North Cypress Medical Center. There's also a Jack in the Box next door and even a donut shop nearby too!Overall, this is an excellent choice if you need a hotel in this area. If you need a long-term stay (30+ days), ask for Svelta Jobe - who has been very helpful in negotiating a much better long-term rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>We've stayed in this hotel a number of times over the past few months in different rooms. This property is pet friendly, but you'd never know it when you first open the door. You are welcomed with a nicely furnished, comfortable, quiet, clean room -- every time!
+In the one bedroom suites, there are two TVs (one in the living area and one in the bedroom area) - and on each you can set up netflix, hulu plus, and pandora (built-in to the TVs) - as well as access an an additional HDMI connection that allows you to connect a chromecast or laptop to watch your own media (or use as an additional monitor).
+There is a full kitchen with full sized microwave, stove/oven, and fridge as well as furnishings (dishes, bowls, pots, pans, etc.) and a mini dish washer (with some dishwasher detergent) so you can make your own meals. (There is a coffee maker, and you're provided with coffee, tea, and even microwave popcorn.)
+The linens are very white and very clean. Very fresh smelling as well.
+There is an ample and tasty morning breakfast every day. There are a number of juices (apple, orange, cranberry) along with scrambled eggs, potatoes, sausages and/or bacon, sometimes egg muffins, cereals, oatmeal, yogurt, and yummy waffles (with various toppings besides syrup like berries, chocolate chips, whipped cream, etc.).
+During the day, they have complimentary coffee, tea, and hot chocolate. Sometimes there...We've stayed in this hotel a number of times over the past few months in different rooms. This property is pet friendly, but you'd never know it when you first open the door. You are welcomed with a nicely furnished, comfortable, quiet, clean room -- every time!In the one bedroom suites, there are two TVs (one in the living area and one in the bedroom area) - and on each you can set up netflix, hulu plus, and pandora (built-in to the TVs) - as well as access an an additional HDMI connection that allows you to connect a chromecast or laptop to watch your own media (or use as an additional monitor).There is a full kitchen with full sized microwave, stove/oven, and fridge as well as furnishings (dishes, bowls, pots, pans, etc.) and a mini dish washer (with some dishwasher detergent) so you can make your own meals. (There is a coffee maker, and you're provided with coffee, tea, and even microwave popcorn.)The linens are very white and very clean. Very fresh smelling as well.There is an ample and tasty morning breakfast every day. There are a number of juices (apple, orange, cranberry) along with scrambled eggs, potatoes, sausages and/or bacon, sometimes egg muffins, cereals, oatmeal, yogurt, and yummy waffles (with various toppings besides syrup like berries, chocolate chips, whipped cream, etc.).During the day, they have complimentary coffee, tea, and hot chocolate. Sometimes there are cookies or other snacks during the afternoons too.On Mon, Tues, and Wed evenings, there is a complimentary happy hour (with red and white wines as well as draft beer) - along various food. (I've seen smores, popcorn, pretzels, frito pie, Italian sausages, chips, etc.)There is an indoor pool (very nice so you can use it year round!), as well as an outdoor grill and firepit. There is an exercise room (new treadmills, eliptical, bike, and weights too) as well as a laundry room with 4 commercial-sized washers and 8 dryers (useful if you're staying a long time).The location is very convenient to hwy 290 as well as to the North Cypress Medical Center. There's also a Jack in the Box next door and even a donut shop nearby too!Overall, this is an excellent choice if you need a hotel in this area. If you need a long-term stay (30+ days), ask for Svelta Jobe - who has been very helpful in negotiating a much better long-term rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r286585503-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286585503</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Immaculate</t>
+  </si>
+  <si>
+    <t>This hotel is obviously brand new.  The place was spotless and contained the most modern features throughout. The staff was first class. Convenience store and fast food restaurant are just steps away from the front entrance.  The morning breakfast buffet was very good.  There is lots of roadway construction and ongoing commercial construction in the area, but traffic is manageable and the stay was peaceful.  This hotel has to rank at the top of the list of places to stay in northwest Houston if clean, modern and convenient amenities are important.MoreShow less</t>
+  </si>
+  <si>
+    <t>Miranda W, General Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is obviously brand new.  The place was spotless and contained the most modern features throughout. The staff was first class. Convenience store and fast food restaurant are just steps away from the front entrance.  The morning breakfast buffet was very good.  There is lots of roadway construction and ongoing commercial construction in the area, but traffic is manageable and the stay was peaceful.  This hotel has to rank at the top of the list of places to stay in northwest Houston if clean, modern and convenient amenities are important.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r279288458-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>279288458</t>
+  </si>
+  <si>
+    <t>06/10/2015</t>
+  </si>
+  <si>
+    <t>Brand new hotel</t>
+  </si>
+  <si>
+    <t>Stayed here May 21-24 2015 for a wedding. Very nice hotel, clean huge comfortable suites. Brand new hotel and they have thought of everything you will need during your stay. Nice pool, excellent hot tub. The breakfast was very nice each day. Nice staff area. Convenient to the highways.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Miranda W, General Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded June 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here May 21-24 2015 for a wedding. Very nice hotel, clean huge comfortable suites. Brand new hotel and they have thought of everything you will need during your stay. Nice pool, excellent hot tub. The breakfast was very nice each day. Nice staff area. Convenient to the highways.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r279137467-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>279137467</t>
+  </si>
+  <si>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work </t>
+  </si>
+  <si>
+    <t>I was here for 21 days and I think the staff did an amazing job and everyone in the hotel was very nice. The hotel was very clean. The pool is a salt water.  The management was outstanding and was on top of everything. I would stay here every time I come into town. MoreShow less</t>
+  </si>
+  <si>
+    <t>I was here for 21 days and I think the staff did an amazing job and everyone in the hotel was very nice. The hotel was very clean. The pool is a salt water.  The management was outstanding and was on top of everything. I would stay here every time I come into town. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r274161107-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274161107</t>
+  </si>
+  <si>
+    <t>05/24/2015</t>
+  </si>
+  <si>
+    <t>Room layout is good</t>
+  </si>
+  <si>
+    <t>I have stayed at a lot of hotels for business now and am becoming rather fussy.  There are some fundamentals for a business traveler: a place to plug the computer in, easy access to wifi, a decent bed, clean bathroom, decent iron and board and a place to plug the iron in, easy access to the cupboard.The Residence Inn, Cypress, Houston has all this.  There are plug sockets all over the place. There are 2 USB sockets as well with a shelf to put your phone on while it charges. Simple but convenient, and important. You will have to log into the wifi every day which is a pain but it is free and adequate for business use. The staff are helpful and friendly too.There is one fatal flaw for light sleepers: the airconditioning fan, blower or extractor I'm not sure, which is at the end of the bed, is very noisy.  Not machine noisy, but airflow noisy.  It turns on and off all night long. It is like a range hood, when you turn it off you the house become really quiet and the volume of the TV can be turned down. Apart from that one issue which disturbed my sleep, the rest of the hotel is to be recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at a lot of hotels for business now and am becoming rather fussy.  There are some fundamentals for a business traveler: a place to plug the computer in, easy access to wifi, a decent bed, clean bathroom, decent iron and board and a place to plug the iron in, easy access to the cupboard.The Residence Inn, Cypress, Houston has all this.  There are plug sockets all over the place. There are 2 USB sockets as well with a shelf to put your phone on while it charges. Simple but convenient, and important. You will have to log into the wifi every day which is a pain but it is free and adequate for business use. The staff are helpful and friendly too.There is one fatal flaw for light sleepers: the airconditioning fan, blower or extractor I'm not sure, which is at the end of the bed, is very noisy.  Not machine noisy, but airflow noisy.  It turns on and off all night long. It is like a range hood, when you turn it off you the house become really quiet and the volume of the TV can be turned down. Apart from that one issue which disturbed my sleep, the rest of the hotel is to be recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r267244423-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267244423</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>Itazuke Friends</t>
+  </si>
+  <si>
+    <t>Hotel was very nice place to rest and sleep after getting together with friends..All hotel staff were friendly and wanting to make stay a good experience. .The breakfast area was kept refilled and staff made sure people had what they wanted. .I had problems with the 2 lobby computers..I spoke with the man on duty..he checked them and weren't connecting correctly. .he had me use computer at check-in desk..A great three night stay..MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Miranda W, General Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded May 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2015</t>
+  </si>
+  <si>
+    <t>Hotel was very nice place to rest and sleep after getting together with friends..All hotel staff were friendly and wanting to make stay a good experience. .The breakfast area was kept refilled and staff made sure people had what they wanted. .I had problems with the 2 lobby computers..I spoke with the man on duty..he checked them and weren't connecting correctly. .he had me use computer at check-in desk..A great three night stay..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r264904596-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>264904596</t>
+  </si>
+  <si>
+    <t>04/10/2015</t>
+  </si>
+  <si>
+    <t>Excellent stay.</t>
+  </si>
+  <si>
+    <t>This new hotel was nearly perfect for us. Check in was swift and easy. The staff was very friendly and helpful.Our room was large with a kitchen and full size refrigerator. Everything was so wonderful and new! I hope they find a way to keep it this nice. The bed was tall but comfortable, and had both feather and non-feather pillows. There were power outlets on the wall behind each nightstand--easy enough to reach for keeping phones charging at bedside at night. The only negative was the air conditioning. It worked great but it was ridiculously loud, like sleeping next to a turbine jet engine at full throttle...not quite, but it's the loudest we've ever heard anywhere in the world.The bathroom was large with a huge shower (only), and zero mold (yay!). The water pressure was excellent and the hot water remained consistent. Only complaint about the bathroom was the toilet paper--it was so rough on the bum that we had to go out and buy our own.The free WiFi was a bit slow. The hotel had a guest laundry room with multiple washers &amp; dryers. Hotel has a free, large, open-air parking lot.I would probably stay here again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Miranda W, General Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded April 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2015</t>
+  </si>
+  <si>
+    <t>This new hotel was nearly perfect for us. Check in was swift and easy. The staff was very friendly and helpful.Our room was large with a kitchen and full size refrigerator. Everything was so wonderful and new! I hope they find a way to keep it this nice. The bed was tall but comfortable, and had both feather and non-feather pillows. There were power outlets on the wall behind each nightstand--easy enough to reach for keeping phones charging at bedside at night. The only negative was the air conditioning. It worked great but it was ridiculously loud, like sleeping next to a turbine jet engine at full throttle...not quite, but it's the loudest we've ever heard anywhere in the world.The bathroom was large with a huge shower (only), and zero mold (yay!). The water pressure was excellent and the hot water remained consistent. Only complaint about the bathroom was the toilet paper--it was so rough on the bum that we had to go out and buy our own.The free WiFi was a bit slow. The hotel had a guest laundry room with multiple washers &amp; dryers. Hotel has a free, large, open-air parking lot.I would probably stay here again if in the area.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1274,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1306,1977 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>88</v>
+      </c>
+      <c r="X7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>103</v>
+      </c>
+      <c r="X9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>126</v>
+      </c>
+      <c r="O11" t="s">
+        <v>127</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" t="s">
+        <v>137</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>128</v>
+      </c>
+      <c r="X12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>145</v>
+      </c>
+      <c r="X13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>153</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>154</v>
+      </c>
+      <c r="X14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" t="s">
+        <v>159</v>
+      </c>
+      <c r="L15" t="s">
+        <v>160</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>161</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>154</v>
+      </c>
+      <c r="X15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" t="s">
+        <v>167</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>154</v>
+      </c>
+      <c r="X16" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>175</v>
+      </c>
+      <c r="X17" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18" t="s">
+        <v>182</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>161</v>
+      </c>
+      <c r="O18" t="s">
+        <v>137</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>175</v>
+      </c>
+      <c r="X18" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>185</v>
+      </c>
+      <c r="J19" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19" t="s">
+        <v>187</v>
+      </c>
+      <c r="L19" t="s">
+        <v>188</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>161</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>175</v>
+      </c>
+      <c r="X19" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" t="s">
+        <v>194</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>195</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>196</v>
+      </c>
+      <c r="X20" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" t="s">
+        <v>203</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>204</v>
+      </c>
+      <c r="O21" t="s">
+        <v>137</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>205</v>
+      </c>
+      <c r="X21" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" t="s">
+        <v>211</v>
+      </c>
+      <c r="L22" t="s">
+        <v>212</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>213</v>
+      </c>
+      <c r="O22" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>214</v>
+      </c>
+      <c r="X22" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>218</v>
+      </c>
+      <c r="J23" t="s">
+        <v>219</v>
+      </c>
+      <c r="K23" t="s">
+        <v>220</v>
+      </c>
+      <c r="L23" t="s">
+        <v>221</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>222</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>223</v>
+      </c>
+      <c r="X23" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>227</v>
+      </c>
+      <c r="J24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L24" t="s">
+        <v>230</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>231</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>223</v>
+      </c>
+      <c r="X24" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>234</v>
+      </c>
+      <c r="J25" t="s">
+        <v>235</v>
+      </c>
+      <c r="K25" t="s">
+        <v>236</v>
+      </c>
+      <c r="L25" t="s">
+        <v>237</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>231</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>223</v>
+      </c>
+      <c r="X25" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" t="s">
+        <v>241</v>
+      </c>
+      <c r="K26" t="s">
+        <v>242</v>
+      </c>
+      <c r="L26" t="s">
+        <v>243</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>222</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>244</v>
+      </c>
+      <c r="X26" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>248</v>
+      </c>
+      <c r="J27" t="s">
+        <v>249</v>
+      </c>
+      <c r="K27" t="s">
+        <v>250</v>
+      </c>
+      <c r="L27" t="s">
+        <v>251</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>252</v>
+      </c>
+      <c r="O27" t="s">
+        <v>137</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>253</v>
+      </c>
+      <c r="X27" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>256</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>257</v>
+      </c>
+      <c r="J28" t="s">
+        <v>258</v>
+      </c>
+      <c r="K28" t="s">
+        <v>259</v>
+      </c>
+      <c r="L28" t="s">
+        <v>260</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>253</v>
+      </c>
+      <c r="X28" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>263</v>
+      </c>
+      <c r="J29" t="s">
+        <v>264</v>
+      </c>
+      <c r="K29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L29" t="s">
+        <v>266</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>252</v>
+      </c>
+      <c r="O29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>253</v>
+      </c>
+      <c r="X29" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>269</v>
+      </c>
+      <c r="J30" t="s">
+        <v>270</v>
+      </c>
+      <c r="K30" t="s">
+        <v>271</v>
+      </c>
+      <c r="L30" t="s">
+        <v>272</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>273</v>
+      </c>
+      <c r="O30" t="s">
+        <v>127</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>274</v>
+      </c>
+      <c r="X30" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>277</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>278</v>
+      </c>
+      <c r="J31" t="s">
+        <v>279</v>
+      </c>
+      <c r="K31" t="s">
+        <v>280</v>
+      </c>
+      <c r="L31" t="s">
+        <v>281</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>273</v>
+      </c>
+      <c r="O31" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>282</v>
+      </c>
+      <c r="X31" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_544.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_544.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="437">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,69 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r597076500-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>7767210</t>
+  </si>
+  <si>
+    <t>597076500</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>I'm not in favor of Residence Inn allowing dogs</t>
+  </si>
+  <si>
+    <t>Excellent Residence Inn - love the entire front desk staff - Dewayne the manager was beyond cool.I'm not in favor of Residence Inn allowing dogs. I'm allergic to dogs and it's mind-boggling how the animal rights activists were able to force hotels and planes to allow dogs.Also, it was very noisy the first night with the ambulances and cars late until 1 am. Then it quieted down.All of Houston is noisy - there's no relief unfortunately.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Pamela A, Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded July 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2018</t>
+  </si>
+  <si>
+    <t>Excellent Residence Inn - love the entire front desk staff - Dewayne the manager was beyond cool.I'm not in favor of Residence Inn allowing dogs. I'm allergic to dogs and it's mind-boggling how the animal rights activists were able to force hotels and planes to allow dogs.Also, it was very noisy the first night with the ambulances and cars late until 1 am. Then it quieted down.All of Houston is noisy - there's no relief unfortunately.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r589069164-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>589069164</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Wonderful!</t>
+  </si>
+  <si>
+    <t>Walked in to a welcoming staff, friendly &amp; helpful. Room was very impressive, clean, roomy &amp; comfy. I liked the open, carpeted stairwells &amp; felt comfortable using. Elevator was a journey away from our room (300) &amp; hubby has a bad knee which will be replaced at hospital across the streeet tomorrow, the reason for our stay. Mixer was wonderful with fresh fruit &amp; salad, beer, wine free to guests M-F. I did feel the need to more trash receptacles in room, only 1 I found was in bathroom. No access to AT&amp;T sports network was disappointing since we are in Houston &amp; like to watch our Stros. Otherwise great!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Walked in to a welcoming staff, friendly &amp; helpful. Room was very impressive, clean, roomy &amp; comfy. I liked the open, carpeted stairwells &amp; felt comfortable using. Elevator was a journey away from our room (300) &amp; hubby has a bad knee which will be replaced at hospital across the streeet tomorrow, the reason for our stay. Mixer was wonderful with fresh fruit &amp; salad, beer, wine free to guests M-F. I did feel the need to more trash receptacles in room, only 1 I found was in bathroom. No access to AT&amp;T sports network was disappointing since we are in Houston &amp; like to watch our Stros. Otherwise great!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r585669195-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>7767210</t>
-  </si>
-  <si>
     <t>585669195</t>
   </si>
   <si>
@@ -171,9 +222,6 @@
     <t>We stayed here for the weekend and it was perfect for our family. With a full kitchen and living room we had plenty of space.  The indoor pool was perfect for cooling off during the day. They had great common space with a courtyard and basketball court. Our families really enjoyed themselves. Very impressed with the spacious suites. MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
@@ -231,9 +279,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Pamela A, General Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded February 1, 2018</t>
   </si>
   <si>
@@ -243,6 +288,63 @@
     <t>decent place, like most Marriotts. Spacious room, decent amenities. Perfectly fine for a one-night business stay. Breakfast good (chobani was most welcome.) Service at the desk at check in slow and confused; granted it was after 1 am and I'm sure the staffer was tired, but we'd just flown in and were exhausted. And the slow, painstaking pace of check in was a little tough to take, but we grinned and bore it. The hotel is fine.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r544828269-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>544828269</t>
+  </si>
+  <si>
+    <t>12/03/2017</t>
+  </si>
+  <si>
+    <t>So much potential, but disappointing</t>
+  </si>
+  <si>
+    <t>Paid extra to stay here because of the amenities. First the indoor hot tub and pool. The hot tub was not at all hot. Breakfast served late on Saturdays so that cancelled out another benefit. And I forgot my toothbrush but the little market was out. The rooms were very nice, this would be good for a family or a long stay, but without the extra amenities I could have stayed somewhere else for a lot less.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Pamela A, General Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded December 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2017</t>
+  </si>
+  <si>
+    <t>Paid extra to stay here because of the amenities. First the indoor hot tub and pool. The hot tub was not at all hot. Breakfast served late on Saturdays so that cancelled out another benefit. And I forgot my toothbrush but the little market was out. The rooms were very nice, this would be good for a family or a long stay, but without the extra amenities I could have stayed somewhere else for a lot less.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r531514254-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>531514254</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>My family and I recently enjoyed our 2nd stay at this hotel. The first time was shortly after it opened up. Both times we've had a great experience. The hotel rooms and common areas are very clean and nicely equipped. Also, the area in general feels quite safe which is a must for me. If i feel like i have to sleep with 1 eye open I'm not going to rest well. The ONLY minor issue we had with this particular stay was that they were at maximum capacity so parking was a challenge later in the evenings. This was in part due to housing Hurricane Harvey victims whom have multiple vehicles. This created a parking challenge. Management happily accommodated us by allowing us to park in handicapped spaces overnight.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Pamela A, Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded November 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2017</t>
+  </si>
+  <si>
+    <t>My family and I recently enjoyed our 2nd stay at this hotel. The first time was shortly after it opened up. Both times we've had a great experience. The hotel rooms and common areas are very clean and nicely equipped. Also, the area in general feels quite safe which is a must for me. If i feel like i have to sleep with 1 eye open I'm not going to rest well. The ONLY minor issue we had with this particular stay was that they were at maximum capacity so parking was a challenge later in the evenings. This was in part due to housing Hurricane Harvey victims whom have multiple vehicles. This created a parking challenge. Management happily accommodated us by allowing us to park in handicapped spaces overnight.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r518149607-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
   </si>
   <si>
@@ -279,9 +381,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Pamela A, General Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded July 28, 2017</t>
   </si>
   <si>
@@ -309,6 +408,54 @@
     <t>Our entire 16U baseball team stayed here for 5-6 days in late June/early July, 2017.  We had about 17 rooms altogether.  We chose the hotel based on each room having a full sized fridge and kitchenette.  Plus having queen sized beds is way better than sharing double beds!  Since we had so many hungry teenage boys to feed we opted to order in pizza one night in the lobby and another night we used the grill for hotdogs and brats.  There was plenty of seating along with indoor and outdoor space, plus a few TVs to watch sports games or whatever else they wanted.  We also played cards for hours at the tall tables.  Staff was accommodating and put up with our craziness.  We would stay here again anytime if given the chance.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r496115725-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>496115725</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>simply , very nice place</t>
+  </si>
+  <si>
+    <t>i stayed in this hotel for a month , very nice stuff , very quite hotel , clean , actually it is really nice and highly recommended , having a good swimming pool with nice small gym, the location on high way so you can move easily where ever you want to go.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Pamela A, General Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2017</t>
+  </si>
+  <si>
+    <t>i stayed in this hotel for a month , very nice stuff , very quite hotel , clean , actually it is really nice and highly recommended , having a good swimming pool with nice small gym, the location on high way so you can move easily where ever you want to go.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r490822374-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>490822374</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>Room for Improvement</t>
+  </si>
+  <si>
+    <t>I called a few days early to tell them I'd be paying for three rooms a night early so we could get in early the next day and the conversation was pleasant. Walking in, seems like everything was fine and for the most part it was. A member of management checked me into my rooms. There was no problems with my check in but it definitely was not hospitable but people have bad days so that's fine. Rooms were AWESOME. Clean and comfortable for the stay we had. I don't think the I would change anything in them.Housekeeping staff was so great and always with a smile on their faces. Later on, I needed a new key for my room and I asked another member of management and also not very hospitable. No smiles nor eye contact at this desk, it seemed. One member of the desk that was always great and helpful to me and what seemed many guests was Jessi. Thank you, Jessi! We checked out on the last day and I dealt with the first member of management who checked me in but not much had changed. I'd say remember how you want to be treated when you visit other properties.While it was not the best hospitality, this stay was still great and the location was great. Thank you RI. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>I called a few days early to tell them I'd be paying for three rooms a night early so we could get in early the next day and the conversation was pleasant. Walking in, seems like everything was fine and for the most part it was. A member of management checked me into my rooms. There was no problems with my check in but it definitely was not hospitable but people have bad days so that's fine. Rooms were AWESOME. Clean and comfortable for the stay we had. I don't think the I would change anything in them.Housekeeping staff was so great and always with a smile on their faces. Later on, I needed a new key for my room and I asked another member of management and also not very hospitable. No smiles nor eye contact at this desk, it seemed. One member of the desk that was always great and helpful to me and what seemed many guests was Jessi. Thank you, Jessi! We checked out on the last day and I dealt with the first member of management who checked me in but not much had changed. I'd say remember how you want to be treated when you visit other properties.While it was not the best hospitality, this stay was still great and the location was great. Thank you RI. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r485135605-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
   </si>
   <si>
@@ -324,9 +471,6 @@
     <t>Hotel is only a couple of years old, so it still seems new!!  Staff was very accommodating and the hotel suite was great!!  Brought 3 of our grandchildren and they loved the indoor pool and the breakfast!!MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>Pamela A, General Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded June 6, 2017</t>
   </si>
   <si>
@@ -381,6 +525,42 @@
     <t>Excellent stay. Can't complain. Giving it a 5 due to the cleanliness of the rooms. I personally can not stand even a small grout/shower/wall stain in the bathroom and the room has been keeping up very well. We stayed in a two bedroom/full size kitchen suite with two small kids and grandparents, we all loved it. This place is actually indeed a bit further away from where our family lives but it's one of the very few residence inns that has two queen size beds in one room and a king size in another room. We got enough beds for a party of six without pulling out the sofa bed in living room. Free breakfast, plenty of selection to choose from. Good wifi speed, plenty of parking. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r470854409-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470854409</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>Up to date hotel</t>
+  </si>
+  <si>
+    <t>Kitchenette area full refrigerator sink stove microwave etc.  Living area with desk and swivel tv so you can watch from bed or couch.  Bathroom was excellent.  My big thing on this is that it is very clean and up to date.  Good breakfast and breakfast area.. Did not check out the pool and hot tub so no opinion there.  Outside patio was very nice as well.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r469216125-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469216125</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel, nice room, free breakfast could be better</t>
+  </si>
+  <si>
+    <t>Nice room- was cleaned in a timely fashion.  Not far from the airport or my in laws.  Helpful to have a full but small kitchen with a 6 month old- very helpful. One complaint- the free continental breakfast in the am was a bit lacking.  Not much variety for the three days we were there and not very tasty.  Staff was incredibly friendly, however.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r451656408-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
   </si>
   <si>
@@ -429,9 +609,6 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>We enjoyed our stay &amp; staff was very accommodating, we were able to bring our pets &amp; got on the first floor so it was easy to take them outside, we got there early &amp; were provided a room, we were near a door so that was good also, spacious room &amp; had a full kitchen, ample parkingMore</t>
   </si>
   <si>
@@ -462,6 +639,51 @@
     <t>Good Afternoon.  I booked a room through Expedia for 12/17-12/18.  I received room 430. We realized that the room was not warming up Sunday morning. We just thought it it was going to take a little bit to warm up. It never really did so I turned on the stove to warm the room up. I didn't want to complain because I liked my room and we were leaving soon anyway.  But when I got ready to take my daghter a bath the water stopped working. I called the front desk at 11 am. Rasheeda stated that she would try to figure something out and never called back. So I brushed my teeth with a cup of apple juice and cleaned my daughter up. I called back at 11:40 because I hadn't heard from Rasheeda. I asked is a supervisor was available.  She said that he left and would be back. I asked for the corporate office number and she stated that she didn't have it but could google it. I said I would hold...she said she couldn't find it. (Even though I did) She said she will call me back with the info....even though it was almost check out time!! Dewayne Scott called back and tried to help. I told him that we had no water and about the room never warming up. He became accusatory and argumentative.  He says that we should have called earlier so he could...Good Afternoon.  I booked a room through Expedia for 12/17-12/18.  I received room 430. We realized that the room was not warming up Sunday morning. We just thought it it was going to take a little bit to warm up. It never really did so I turned on the stove to warm the room up. I didn't want to complain because I liked my room and we were leaving soon anyway.  But when I got ready to take my daghter a bath the water stopped working. I called the front desk at 11 am. Rasheeda stated that she would try to figure something out and never called back. So I brushed my teeth with a cup of apple juice and cleaned my daughter up. I called back at 11:40 because I hadn't heard from Rasheeda. I asked is a supervisor was available.  She said that he left and would be back. I asked for the corporate office number and she stated that she didn't have it but could google it. I said I would hold...she said she couldn't find it. (Even though I did) She said she will call me back with the info....even though it was almost check out time!! Dewayne Scott called back and tried to help. I told him that we had no water and about the room never warming up. He became accusatory and argumentative.  He says that we should have called earlier so he could have done something. We are out of town in a hotel! We expect the water and heat to work!!!! We didn't think that we would have to do hourly maintenance checks on the water and heat! It worked....then it all of a sudden stopped! ! We couldn't forsee that!!!! Then he says he would have had us brush our teeth and bathe in another room! WHAT? It's cold!! No one wants to drag a kid down the hall an hour before check out...to rush bathe, get ready then trek back to our main room all before check out!!! That is is crazy!!! I told him that,  that is a serious inconvenience and that wouldn't work.! I asked why it couldn't be fixed. In a very rude and condescending manner he says because the maintenance people aren't there because it's Sunday. It would take hours ma'am!! It's not our fault that the maintenance people aren't here!!! We shouldn't have to sufofficei told him we were coming down to check out. I hung up the phone and went downstairs.  He was sitting in his offout as if ..oh well. I asked for the corporate info and again..HE NOW DOESN'T HAVE IT!  I asked for his card and was given a sales card because that's all he had. My daughters dad was very angry so I told him to leave. Check in was great but Rasheeda lack of customer service skills, promptness or ounce of compassion ruined mt stay. Along with Dewayne Scott's rude, careless mentality. He asked what could he do. After everything,  I want my money back! He says I paid expedia. So what!!!! I can still get my money back! As I was leaving I told him that Rasheeda never followed up with me and ignored my NO WATER notification.  She started arguing that it was over 30 mins. She says..HE WASN'T EVEN GONE THAT LONG!!! She mixed my firat call up with my second call. Proving how lazy and uncaring she is. There was a customer in front of her. How unprofessional to argue with a customer in front of other customers. Great Hotel if no issues arise! I booked the hotel for 12/31 thru 01/02/17 buy cancelled my booking after the wonderful treatment by the staff.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r435822997-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435822997</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Good hotel for business</t>
+  </si>
+  <si>
+    <t>Plenty of parking.  Good service.  Nicely decorated. Great rooms with plenty of room. Fridge, coffee maker, sink, dishware. Couch, desk and TV, Nice king bed.  Large bathroom as well.  Very good breakfast with plenty of choices.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Plenty of parking.  Good service.  Nicely decorated. Great rooms with plenty of room. Fridge, coffee maker, sink, dishware. Couch, desk and TV, Nice king bed.  Large bathroom as well.  Very good breakfast with plenty of choices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r433867755-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>433867755</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>Very Friendly Staff</t>
+  </si>
+  <si>
+    <t>The check-in was very smooth. the reception staff was extremely friendly. She had given all the information we need to know about the hotel at the check-in. I stayed in a studio suit. it was spacious and very well organised. Even though i didn’t request for change over they have done it pretty much every day. The entire hotel complex looks brand new and very clean. The breakfast they provided was very ordinary. However, there is a “Jack in the box” restaurant in next door which was opened for 24 hours you can grab something on the go. Apart from that it was a very nice stay. Definitely recommend to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pamela A, General Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2016</t>
+  </si>
+  <si>
+    <t>The check-in was very smooth. the reception staff was extremely friendly. She had given all the information we need to know about the hotel at the check-in. I stayed in a studio suit. it was spacious and very well organised. Even though i didn’t request for change over they have done it pretty much every day. The entire hotel complex looks brand new and very clean. The breakfast they provided was very ordinary. However, there is a “Jack in the box” restaurant in next door which was opened for 24 hours you can grab something on the go. Apart from that it was a very nice stay. Definitely recommend to anyone.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r397727141-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
   </si>
   <si>
@@ -525,6 +747,51 @@
     <t>I have stayed at many extended stay hotels and this particular Residence Inn is the I have stayed in so far.  Many Residence Inn's as well as other branded extended stay hotels get run down very quickly, this property is not at all.  It has been open for over a year and it still looks brand new.  The location is very convenient to the highway without the loud noise.  Every member of the staff was also very friendly and willing to go out of there way to answer a question or solve a problem.  Definitely the best place to stay in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r387248280-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387248280</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Friendliest place on earth</t>
+  </si>
+  <si>
+    <t>This is my second time here and I love this place. The staff is super friendly, rooms are big (full kitchen) and clean. Totally set up for business travelers (desks and even outlets near the couch). TVs have cable and Netflix, which I really appreciate. Breakfast in the morning and different things in the evenings (last time I was here it was desserts and wine, tonight it was a full dinner of bratwurst, potato salad, etc.). But, again, it all comes down to how nice the people who work here are.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Pamela A, Operations manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded July 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2016</t>
+  </si>
+  <si>
+    <t>This is my second time here and I love this place. The staff is super friendly, rooms are big (full kitchen) and clean. Totally set up for business travelers (desks and even outlets near the couch). TVs have cable and Netflix, which I really appreciate. Breakfast in the morning and different things in the evenings (last time I was here it was desserts and wine, tonight it was a full dinner of bratwurst, potato salad, etc.). But, again, it all comes down to how nice the people who work here are.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r383971766-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383971766</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>Perfect!</t>
+  </si>
+  <si>
+    <t>So impressed! Clean, big rooms. Love the bathrooms! Hot! Hot water. Very nice staff. Highly recommend. Very quiet. Did not hear a pin drop! Felt like home. Full size refrigerator, everything you could need in the kitchen.... Bigger rooms then I expected...Just wow . MoreShow less</t>
+  </si>
+  <si>
+    <t>So impressed! Clean, big rooms. Love the bathrooms! Hot! Hot water. Very nice staff. Highly recommend. Very quiet. Did not hear a pin drop! Felt like home. Full size refrigerator, everything you could need in the kitchen.... Bigger rooms then I expected...Just wow . More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r380417057-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
   </si>
   <si>
@@ -540,9 +807,6 @@
     <t>We checked into the Residence Inn on Barker Cypress Rd, Houston for 12 days. The desk staff were very friendly and helpful. Noor was our favourite. We were on the fourth floor, facing south. The room was tidied each day and freshened with clean towels, and the trash emptied. Friendly cleaning staff too.The breakfasts were good with hot and cold items, yogurt, oatmeal, fruit, scrambled eggs, sausage, biscuits, waffles with toppings, cereals, toast, muffins bagels, coffee and juices.The computers and printers in the lobby were handy ( for printing boarding passes ) when our computer developed a problem. The kitchenette with sink, two burner cooktop, full fridge and microwave was good for snacks and lunches.We would recommend this hotel. You do need a vehicle, but we did see a sign up that a Mall is planned for across the street, which will be nice. There is a Subway and Mexican restaurant you can walk to.MoreShow less</t>
   </si>
   <si>
-    <t>June 2016</t>
-  </si>
-  <si>
     <t>Pamela A, Operations Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded June 14, 2016</t>
   </si>
   <si>
@@ -588,6 +852,51 @@
     <t>I stayed for 2 nights at the residence inn near the suburbs of Houston specifically in Cypress Texas. This hotel was perfectly located near our client.Pros:1. Very modern and clean hotel.2. Basically a nice apartment with a kitchen and desk.3. Has a cool basketball court.4. Close to the highway.Cons:1. Breakfast was ok. Nothing special.Highly recommended.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r359173612-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>359173612</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t>Clean, new Residence Inn</t>
+  </si>
+  <si>
+    <t>Stayed here while visiting family in Cypress. Clean, spacious suite. Highly recommend for extended stays in Houston area.  Great breakfast choices every morning.  Friendly, courteous staff.  Air conditioning worked well which is helpful in Houston humidity.  Bathroom spacious and very clean with ample closet and dresser space. Kitchen well thought out with full size refrigerator; cooktop, dishwasher.  We will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pamela A, General Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded March 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here while visiting family in Cypress. Clean, spacious suite. Highly recommend for extended stays in Houston area.  Great breakfast choices every morning.  Friendly, courteous staff.  Air conditioning worked well which is helpful in Houston humidity.  Bathroom spacious and very clean with ample closet and dresser space. Kitchen well thought out with full size refrigerator; cooktop, dishwasher.  We will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r357774532-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357774532</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Shopping trip</t>
+  </si>
+  <si>
+    <t>Excellent place.  The breakfast was great.  Front desk helpful.  Indoor pool was nice and well kept.   Rooms are nice with kitchenettes.  Our bathe had a shower only.  Will return to this hotel.  Close to lots of restaurants and of course shopping outlet mall.  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Excellent place.  The breakfast was great.  Front desk helpful.  Indoor pool was nice and well kept.   Rooms are nice with kitchenettes.  Our bathe had a shower only.  Will return to this hotel.  Close to lots of restaurants and of course shopping outlet mall.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r349536223-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
   </si>
   <si>
@@ -669,6 +978,51 @@
     <t>I recently stayed with staff at Residence Inn Cypress.  This hotel is new or newly renovated and is very nice. Check in was great, rooms were clean and spacious.  Some staff had mini suites with sleeper sofas and kitchenettes.  There is a nice fitness room and an indoor pool. There was a free hot breakfast that well very well stocked.  The area was very congested, our event was at Berry Center and even though the hotel is 4-5 miles from the venue, it took us about 15 mins to get there.   I would stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r324166963-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>324166963</t>
+  </si>
+  <si>
+    <t>11/03/2015</t>
+  </si>
+  <si>
+    <t>Nice and convenient</t>
+  </si>
+  <si>
+    <t>We were a group of 6 persons staying for 3 nights. Enjoyed the modern decoration and infrastructure and the breakfast buffet options. Wi fi speed was great.Only recommending putting a holding bar in the bathroom for senior people. Also, we could not close the drain stopper and the refrigerator was noisy. We did not called maintenance as issues were not significant.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Miranda W, General Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded November 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2015</t>
+  </si>
+  <si>
+    <t>We were a group of 6 persons staying for 3 nights. Enjoyed the modern decoration and infrastructure and the breakfast buffet options. Wi fi speed was great.Only recommending putting a holding bar in the bathroom for senior people. Also, we could not close the drain stopper and the refrigerator was noisy. We did not called maintenance as issues were not significant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r317181140-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>317181140</t>
+  </si>
+  <si>
+    <t>10/08/2015</t>
+  </si>
+  <si>
+    <t>Excellent in every respect</t>
+  </si>
+  <si>
+    <t>We chose this place due to location, not far from family, yet an easy commute back to airport.     It was a great choice. The bed was comfortable, the amenities perfect in every way. Located near good and reasonable restaurants.     The staff were all courteous and helpful, breakfast was top notch. MoreShow less</t>
+  </si>
+  <si>
+    <t>We chose this place due to location, not far from family, yet an easy commute back to airport.     It was a great choice. The bed was comfortable, the amenities perfect in every way. Located near good and reasonable restaurants.     The staff were all courteous and helpful, breakfast was top notch. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r311542502-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
   </si>
   <si>
@@ -687,12 +1041,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>Miranda W, General Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded November 17, 2015</t>
-  </si>
-  <si>
-    <t>Responded November 17, 2015</t>
-  </si>
-  <si>
     <t>We had an amazing time at the hotel!  The rooms were large and clean with modern furniture.  Hot breakfast daily with excellent choices!  The pool was covered which made it enjoyable especially in July and August!More</t>
   </si>
   <si>
@@ -703,9 +1051,6 @@
   </si>
   <si>
     <t>09/13/2015</t>
-  </si>
-  <si>
-    <t>Perfect!</t>
   </si>
   <si>
     <t>This place was just awesome!! I mean I brung my family here to get away for a few days and it actually felt like we was home away from home! We got food and cooked and everything was so clean and I was really impressed with the Netflix!!! We watched Netflix all day!!MoreShow less</t>
@@ -745,6 +1090,60 @@
 During the day, they have complimentary coffee, tea, and hot chocolate. Sometimes there...We've stayed in this hotel a number of times over the past few months in different rooms. This property is pet friendly, but you'd never know it when you first open the door. You are welcomed with a nicely furnished, comfortable, quiet, clean room -- every time!In the one bedroom suites, there are two TVs (one in the living area and one in the bedroom area) - and on each you can set up netflix, hulu plus, and pandora (built-in to the TVs) - as well as access an an additional HDMI connection that allows you to connect a chromecast or laptop to watch your own media (or use as an additional monitor).There is a full kitchen with full sized microwave, stove/oven, and fridge as well as furnishings (dishes, bowls, pots, pans, etc.) and a mini dish washer (with some dishwasher detergent) so you can make your own meals. (There is a coffee maker, and you're provided with coffee, tea, and even microwave popcorn.)The linens are very white and very clean. Very fresh smelling as well.There is an ample and tasty morning breakfast every day. There are a number of juices (apple, orange, cranberry) along with scrambled eggs, potatoes, sausages and/or bacon, sometimes egg muffins, cereals, oatmeal, yogurt, and yummy waffles (with various toppings besides syrup like berries, chocolate chips, whipped cream, etc.).During the day, they have complimentary coffee, tea, and hot chocolate. Sometimes there are cookies or other snacks during the afternoons too.On Mon, Tues, and Wed evenings, there is a complimentary happy hour (with red and white wines as well as draft beer) - along various food. (I've seen smores, popcorn, pretzels, frito pie, Italian sausages, chips, etc.)There is an indoor pool (very nice so you can use it year round!), as well as an outdoor grill and firepit. There is an exercise room (new treadmills, eliptical, bike, and weights too) as well as a laundry room with 4 commercial-sized washers and 8 dryers (useful if you're staying a long time).The location is very convenient to hwy 290 as well as to the North Cypress Medical Center. There's also a Jack in the Box next door and even a donut shop nearby too!Overall, this is an excellent choice if you need a hotel in this area. If you need a long-term stay (30+ days), ask for Svelta Jobe - who has been very helpful in negotiating a much better long-term rate.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r302624856-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>302624856</t>
+  </si>
+  <si>
+    <t>08/23/2015</t>
+  </si>
+  <si>
+    <t>Nice, new and friendly.</t>
+  </si>
+  <si>
+    <t>Due to a power outage in the neighborhood and a malfunctioning AC as a result of the power outage, we stayed here for 3 nights. This hotel had just opened and was the nearest hotel to our room.I think $203 for a room (taxes included) was a little steep, but that's the ONLY negative I have.Amazingly friendly and helpful front desk staff and General Manager.Spacious, clean rooms.Huge, fully equipped kitchen with full size fridge, range and microwave.Great, free breakfast buffet.Convenient to Hwy 290, but not loud or noisy in the room.Highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Miranda W, General Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded September 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2015</t>
+  </si>
+  <si>
+    <t>Due to a power outage in the neighborhood and a malfunctioning AC as a result of the power outage, we stayed here for 3 nights. This hotel had just opened and was the nearest hotel to our room.I think $203 for a room (taxes included) was a little steep, but that's the ONLY negative I have.Amazingly friendly and helpful front desk staff and General Manager.Spacious, clean rooms.Huge, fully equipped kitchen with full size fridge, range and microwave.Great, free breakfast buffet.Convenient to Hwy 290, but not loud or noisy in the room.Highly recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r293521507-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>293521507</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>Gorgeous!</t>
+  </si>
+  <si>
+    <t>Simply beautiful! So pleasantly surprised because it was out in the boon docks in an area we weren't familiar with and construction going on but wow inside especially our spacious suite was immaculate! Love the modern look and especially the bathrooms! Beautiful! The shower was just glass and this modern shower head and drain. Loved it! The kitchen was stocked and modern. The beds were plush and comfty. The pool was fun however maybe too new because the tiles were very slippery so my 5yr old daughter did slip while she was just walking and cut her toe. But that's the only negative of this place. They served BBQ pork sandwiches for happy hour. Breakfast was ample and delicious. We just wished we could have stayed longer n not just overnight! We will definitely ask to come back here. The reception and staff were friendly. Loved it all. Thank you for making our 1st night stay of our road trip so amazing!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Miranda W, General Manager at Residence Inn Houston Northwest/Cypress, responded to this reviewResponded August 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2015</t>
+  </si>
+  <si>
+    <t>Simply beautiful! So pleasantly surprised because it was out in the boon docks in an area we weren't familiar with and construction going on but wow inside especially our spacious suite was immaculate! Love the modern look and especially the bathrooms! Beautiful! The shower was just glass and this modern shower head and drain. Loved it! The kitchen was stocked and modern. The beds were plush and comfty. The pool was fun however maybe too new because the tiles were very slippery so my 5yr old daughter did slip while she was just walking and cut her toe. But that's the only negative of this place. They served BBQ pork sandwiches for happy hour. Breakfast was ample and delicious. We just wished we could have stayed longer n not just overnight! We will definitely ask to come back here. The reception and staff were friendly. Loved it all. Thank you for making our 1st night stay of our road trip so amazing!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r286585503-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
   </si>
   <si>
@@ -814,6 +1213,45 @@
     <t>I was here for 21 days and I think the staff did an amazing job and everyone in the hotel was very nice. The hotel was very clean. The pool is a salt water.  The management was outstanding and was on top of everything. I would stay here every time I come into town. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r276551713-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>276551713</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>Clean, nice</t>
+  </si>
+  <si>
+    <t>Stayed here last week, and was a little concerned with all the awful weather Houston has been getting, and the fact that this was a new hotel.  Nothing to worry about.  Good location, staff freindly, and accomodiating, hotel SUPER clean (it's only 4 months old).  Breakfast the next morning outstanding.  My ONLY complant is in the rooms, they have the cups for coffee and glassware on the second shelf.  At 5' 3" it was REALLY hard to reach.  They could certainly move the shelving down 2 or 3 pegs and still have tons of room for the 4 dishes on the first shelf.  Would recomend, clean, friendly, good location, and reasonablly pricedMoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here last week, and was a little concerned with all the awful weather Houston has been getting, and the fact that this was a new hotel.  Nothing to worry about.  Good location, staff freindly, and accomodiating, hotel SUPER clean (it's only 4 months old).  Breakfast the next morning outstanding.  My ONLY complant is in the rooms, they have the cups for coffee and glassware on the second shelf.  At 5' 3" it was REALLY hard to reach.  They could certainly move the shelving down 2 or 3 pegs and still have tons of room for the 4 dishes on the first shelf.  Would recomend, clean, friendly, good location, and reasonablly pricedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r274885459-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274885459</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Farris-Harris Wedding</t>
+  </si>
+  <si>
+    <t>The hotel was so beautiful with a very friendly staff, great amenities, breakfast and so close to everything!  The kitchenette was full sized which made cooking so easy.We had a wonderful experience and will definitely return.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>The hotel was so beautiful with a very friendly staff, great amenities, breakfast and so close to everything!  The kitchenette was full sized which made cooking so easy.We had a wonderful experience and will definitely return.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r274161107-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
   </si>
   <si>
@@ -881,6 +1319,32 @@
   </si>
   <si>
     <t>This new hotel was nearly perfect for us. Check in was swift and easy. The staff was very friendly and helpful.Our room was large with a kitchen and full size refrigerator. Everything was so wonderful and new! I hope they find a way to keep it this nice. The bed was tall but comfortable, and had both feather and non-feather pillows. There were power outlets on the wall behind each nightstand--easy enough to reach for keeping phones charging at bedside at night. The only negative was the air conditioning. It worked great but it was ridiculously loud, like sleeping next to a turbine jet engine at full throttle...not quite, but it's the loudest we've ever heard anywhere in the world.The bathroom was large with a huge shower (only), and zero mold (yay!). The water pressure was excellent and the hot water remained consistent. Only complaint about the bathroom was the toilet paper--it was so rough on the bum that we had to go out and buy our own.The free WiFi was a bit slow. The hotel had a guest laundry room with multiple washers &amp; dryers. Hotel has a free, large, open-air parking lot.I would probably stay here again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7767210-r262904309-Residence_Inn_Houston_Northwest_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262904309</t>
+  </si>
+  <si>
+    <t>03/31/2015</t>
+  </si>
+  <si>
+    <t>Nice, New Facility With Some Glitches</t>
+  </si>
+  <si>
+    <t>Overall we enjoyed our stay here, and wouldn't hesitate to stay again, but they do have some glitches to work out. 
+The hotel is brand new, very clean, with modern design and furnishings.   We stayed in a one bedroom, and it was smaller than other RIs at which we have stayed, esp the combo kitchen/dining/living room.  There is no room for the usual dining table, instead there are 2 stools at the counter that separates the kitchen from living area.  Fine as long as  you’re not traveling with kids.  
+The staff was helpful and professional.  Other positives:   focused bedside reading lights, well equipped kitchen, thick fluffy towels, 2 large flat screen tv's, comfy bed, Internet that was free, stable and easy to connect to,  and spacious bath with storage.  Appreciated the counter with mirror right outside bathroom which made it easy for 2 people to get ready.
+There is also an indoor pool with hot tub (we didn’t partake, but looked clean) and a nice outside seating area with fire pit.  Great to have somewhere outside to sit when weather allows.
+The negatives:  No luggage rack, no electric outlets on bedside tables (nearest outlet too far away  to charge tablet while reading in bed) altho desk had power strip with outlets, ac was a bit noisy, and quilt on king sized bed way too narrow,  must be queen sized, barely covered top of bed, not large enough for 2 people...Overall we enjoyed our stay here, and wouldn't hesitate to stay again, but they do have some glitches to work out. The hotel is brand new, very clean, with modern design and furnishings.   We stayed in a one bedroom, and it was smaller than other RIs at which we have stayed, esp the combo kitchen/dining/living room.  There is no room for the usual dining table, instead there are 2 stools at the counter that separates the kitchen from living area.  Fine as long as  you’re not traveling with kids.  The staff was helpful and professional.  Other positives:   focused bedside reading lights, well equipped kitchen, thick fluffy towels, 2 large flat screen tv's, comfy bed, Internet that was free, stable and easy to connect to,  and spacious bath with storage.  Appreciated the counter with mirror right outside bathroom which made it easy for 2 people to get ready.There is also an indoor pool with hot tub (we didn’t partake, but looked clean) and a nice outside seating area with fire pit.  Great to have somewhere outside to sit when weather allows.The negatives:  No luggage rack, no electric outlets on bedside tables (nearest outlet too far away  to charge tablet while reading in bed) altho desk had power strip with outlets, ac was a bit noisy, and quilt on king sized bed way too narrow,  must be queen sized, barely covered top of bed, not large enough for 2 people to share.Breakfast needs some attention - coffee, hot water for tea and oatmeal all were not hot (heard 3 different guests comment on this), toaster was broken and not replaced/repaired for 2 days – if it can’t be repaired quickly why not purchase one immediately, it's only a 4 slice toaster (or have a backup one), and they ran out of skim milk 3 mornings in a row (one morning we could understand, but 3?).    Staff in breakfast area were very nice, and kept it clean, but needs to be better managed.  North Cypress Med Center is directly across the street, very convenient if you have are visiting patient or have business there.    Hopefully these issues will be resolved, because it is a nice facility.MoreShow less</t>
+  </si>
+  <si>
+    <t>Overall we enjoyed our stay here, and wouldn't hesitate to stay again, but they do have some glitches to work out. 
+The hotel is brand new, very clean, with modern design and furnishings.   We stayed in a one bedroom, and it was smaller than other RIs at which we have stayed, esp the combo kitchen/dining/living room.  There is no room for the usual dining table, instead there are 2 stools at the counter that separates the kitchen from living area.  Fine as long as  you’re not traveling with kids.  
+The staff was helpful and professional.  Other positives:   focused bedside reading lights, well equipped kitchen, thick fluffy towels, 2 large flat screen tv's, comfy bed, Internet that was free, stable and easy to connect to,  and spacious bath with storage.  Appreciated the counter with mirror right outside bathroom which made it easy for 2 people to get ready.
+There is also an indoor pool with hot tub (we didn’t partake, but looked clean) and a nice outside seating area with fire pit.  Great to have somewhere outside to sit when weather allows.
+The negatives:  No luggage rack, no electric outlets on bedside tables (nearest outlet too far away  to charge tablet while reading in bed) altho desk had power strip with outlets, ac was a bit noisy, and quilt on king sized bed way too narrow,  must be queen sized, barely covered top of bed, not large enough for 2 people...Overall we enjoyed our stay here, and wouldn't hesitate to stay again, but they do have some glitches to work out. The hotel is brand new, very clean, with modern design and furnishings.   We stayed in a one bedroom, and it was smaller than other RIs at which we have stayed, esp the combo kitchen/dining/living room.  There is no room for the usual dining table, instead there are 2 stools at the counter that separates the kitchen from living area.  Fine as long as  you’re not traveling with kids.  The staff was helpful and professional.  Other positives:   focused bedside reading lights, well equipped kitchen, thick fluffy towels, 2 large flat screen tv's, comfy bed, Internet that was free, stable and easy to connect to,  and spacious bath with storage.  Appreciated the counter with mirror right outside bathroom which made it easy for 2 people to get ready.There is also an indoor pool with hot tub (we didn’t partake, but looked clean) and a nice outside seating area with fire pit.  Great to have somewhere outside to sit when weather allows.The negatives:  No luggage rack, no electric outlets on bedside tables (nearest outlet too far away  to charge tablet while reading in bed) altho desk had power strip with outlets, ac was a bit noisy, and quilt on king sized bed way too narrow,  must be queen sized, barely covered top of bed, not large enough for 2 people to share.Breakfast needs some attention - coffee, hot water for tea and oatmeal all were not hot (heard 3 different guests comment on this), toaster was broken and not replaced/repaired for 2 days – if it can’t be repaired quickly why not purchase one immediately, it's only a 4 slice toaster (or have a backup one), and they ran out of skim milk 3 mornings in a row (one morning we could understand, but 3?).    Staff in breakfast area were very nice, and kept it clean, but needs to be better managed.  North Cypress Med Center is directly across the street, very convenient if you have are visiting patient or have business there.    Hopefully these issues will be resolved, because it is a nice facility.More</t>
   </si>
 </sst>
 </file>
@@ -1415,7 +1879,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1424,11 +1888,15 @@
         <v>52</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1479,10 +1947,10 @@
         <v>4</v>
       </c>
       <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
         <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1493,14 +1961,10 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
         <v>62</v>
-      </c>
-      <c r="X3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -1516,56 +1980,52 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
         <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" t="s">
-        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>4</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1581,34 +2041,34 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
         <v>75</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>76</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>77</v>
       </c>
-      <c r="K5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>80</v>
-      </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1619,10 +2079,14 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -1659,35 +2123,35 @@
         <v>85</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
         <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
         <v>88</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>89</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -1703,58 +2167,52 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
         <v>91</v>
       </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>92</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>93</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>94</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>95</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>86</v>
-      </c>
       <c r="O7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -1770,7 +2228,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1779,25 +2237,25 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1809,13 +2267,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="X8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
@@ -1831,7 +2289,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1840,49 +2298,39 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>103</v>
-      </c>
-      <c r="X9" t="s">
-        <v>104</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -1898,7 +2346,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1907,43 +2355,47 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="X10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Y10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
@@ -1959,7 +2411,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1968,43 +2420,49 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>127</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="X11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y11" t="s">
         <v>129</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="12">
@@ -2020,42 +2478,42 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
         <v>131</v>
       </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>132</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>133</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>134</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>135</v>
       </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>136</v>
-      </c>
       <c r="O12" t="s">
-        <v>137</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
@@ -2065,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="X12" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="Y12" t="s">
         <v>138</v>
@@ -2108,13 +2566,13 @@
         <v>143</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
         <v>144</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2125,14 +2583,10 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
         <v>145</v>
-      </c>
-      <c r="X13" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="14">
@@ -2148,56 +2602,52 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" t="s">
         <v>148</v>
       </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>149</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>150</v>
       </c>
-      <c r="K14" t="s">
-        <v>151</v>
-      </c>
-      <c r="L14" t="s">
-        <v>152</v>
-      </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="X14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
@@ -2213,43 +2663,43 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" t="s">
         <v>157</v>
       </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>158</v>
       </c>
-      <c r="J15" t="s">
-        <v>150</v>
-      </c>
-      <c r="K15" t="s">
-        <v>159</v>
-      </c>
-      <c r="L15" t="s">
-        <v>160</v>
-      </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="n">
         <v>5</v>
       </c>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>5</v>
@@ -2258,13 +2708,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="X15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Y15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
@@ -2280,55 +2730,49 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" t="s">
         <v>163</v>
       </c>
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="L16" t="s">
         <v>164</v>
       </c>
-      <c r="J16" t="s">
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>165</v>
       </c>
-      <c r="K16" t="s">
-        <v>166</v>
-      </c>
-      <c r="L16" t="s">
-        <v>167</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>153</v>
-      </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="X16" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="Y16" t="s">
         <v>168</v>
@@ -2374,25 +2818,27 @@
         <v>174</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
       <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>175</v>
-      </c>
-      <c r="X17" t="s">
-        <v>176</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
@@ -2408,52 +2854,52 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" t="s">
         <v>178</v>
       </c>
-      <c r="G18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>179</v>
       </c>
-      <c r="J18" t="s">
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
         <v>180</v>
       </c>
-      <c r="K18" t="s">
-        <v>181</v>
-      </c>
-      <c r="L18" t="s">
-        <v>182</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>161</v>
-      </c>
       <c r="O18" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>175</v>
-      </c>
-      <c r="X18" t="s">
-        <v>176</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
@@ -2469,34 +2915,34 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>182</v>
+      </c>
+      <c r="J19" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" t="s">
         <v>184</v>
       </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>185</v>
       </c>
-      <c r="J19" t="s">
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>186</v>
       </c>
-      <c r="K19" t="s">
+      <c r="O19" t="s">
         <v>187</v>
-      </c>
-      <c r="L19" t="s">
-        <v>188</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s">
-        <v>161</v>
-      </c>
-      <c r="O19" t="s">
-        <v>71</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2508,13 +2954,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="X19" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="Y19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20">
@@ -2530,7 +2976,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2539,47 +2985,49 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
       <c r="R20" t="s"/>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="X20" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y20" t="s">
         <v>197</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="21">
@@ -2595,56 +3043,52 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
         <v>199</v>
       </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>200</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>201</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>202</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
         <v>203</v>
       </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>204</v>
-      </c>
       <c r="O21" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
+        <v>204</v>
+      </c>
+      <c r="X21" t="s">
         <v>205</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>206</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="22">
@@ -2660,39 +3104,39 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
         <v>208</v>
       </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>209</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>210</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>211</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
         <v>212</v>
       </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>213</v>
-      </c>
       <c r="O22" t="s">
-        <v>71</v>
-      </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="n">
         <v>4</v>
@@ -2705,13 +3149,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="X22" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="Y22" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23">
@@ -2727,52 +3171,58 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>215</v>
+      </c>
+      <c r="J23" t="s">
+        <v>216</v>
+      </c>
+      <c r="K23" t="s">
         <v>217</v>
       </c>
-      <c r="G23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="L23" t="s">
         <v>218</v>
       </c>
-      <c r="J23" t="s">
-        <v>219</v>
-      </c>
-      <c r="K23" t="s">
-        <v>220</v>
-      </c>
-      <c r="L23" t="s">
-        <v>221</v>
-      </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="O23" t="s">
         <v>52</v>
       </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="X23" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Y23" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
@@ -2788,52 +3238,56 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>223</v>
+      </c>
+      <c r="J24" t="s">
+        <v>224</v>
+      </c>
+      <c r="K24" t="s">
+        <v>225</v>
+      </c>
+      <c r="L24" t="s">
         <v>226</v>
       </c>
-      <c r="G24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>227</v>
       </c>
-      <c r="J24" t="s">
-        <v>228</v>
-      </c>
-      <c r="K24" t="s">
-        <v>229</v>
-      </c>
-      <c r="L24" t="s">
-        <v>230</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>231</v>
-      </c>
       <c r="O24" t="s">
-        <v>52</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="X24" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Y24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25">
@@ -2849,36 +3303,38 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
+        <v>231</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>232</v>
+      </c>
+      <c r="J25" t="s">
+        <v>224</v>
+      </c>
+      <c r="K25" t="s">
         <v>233</v>
       </c>
-      <c r="G25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="L25" t="s">
         <v>234</v>
       </c>
-      <c r="J25" t="s">
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
         <v>235</v>
       </c>
-      <c r="K25" t="s">
-        <v>236</v>
-      </c>
-      <c r="L25" t="s">
-        <v>237</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>231</v>
-      </c>
       <c r="O25" t="s">
-        <v>52</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
       <c r="Q25" t="n">
         <v>5</v>
       </c>
@@ -2892,13 +3348,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="X25" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Y25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26">
@@ -2914,56 +3370,58 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
+        <v>237</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>238</v>
+      </c>
+      <c r="J26" t="s">
         <v>239</v>
       </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>240</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>241</v>
       </c>
-      <c r="K26" t="s">
-        <v>242</v>
-      </c>
-      <c r="L26" t="s">
-        <v>243</v>
-      </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
       <c r="S26" t="n">
         <v>5</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="X26" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="Y26" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27">
@@ -2979,43 +3437,43 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>244</v>
+      </c>
+      <c r="J27" t="s">
+        <v>245</v>
+      </c>
+      <c r="K27" t="s">
+        <v>246</v>
+      </c>
+      <c r="L27" t="s">
         <v>247</v>
       </c>
-      <c r="G27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
         <v>248</v>
       </c>
-      <c r="J27" t="s">
-        <v>249</v>
-      </c>
-      <c r="K27" t="s">
-        <v>250</v>
-      </c>
-      <c r="L27" t="s">
-        <v>251</v>
-      </c>
-      <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s">
-        <v>252</v>
-      </c>
       <c r="O27" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q27" t="s"/>
       <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
         <v>5</v>
@@ -3024,13 +3482,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="X27" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Y27" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28">
@@ -3046,31 +3504,35 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
+        <v>252</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J28" t="s">
+        <v>254</v>
+      </c>
+      <c r="K28" t="s">
+        <v>255</v>
+      </c>
+      <c r="L28" t="s">
         <v>256</v>
       </c>
-      <c r="G28" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" t="s">
-        <v>257</v>
-      </c>
-      <c r="J28" t="s">
-        <v>258</v>
-      </c>
-      <c r="K28" t="s">
-        <v>259</v>
-      </c>
-      <c r="L28" t="s">
-        <v>260</v>
-      </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
+      <c r="N28" t="s">
+        <v>248</v>
+      </c>
+      <c r="O28" t="s">
+        <v>68</v>
+      </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
@@ -3081,13 +3543,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="X28" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="Y28" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
@@ -3103,58 +3565,52 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
+        <v>258</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>259</v>
+      </c>
+      <c r="J29" t="s">
+        <v>260</v>
+      </c>
+      <c r="K29" t="s">
+        <v>261</v>
+      </c>
+      <c r="L29" t="s">
         <v>262</v>
       </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" t="s">
-        <v>263</v>
-      </c>
-      <c r="J29" t="s">
-        <v>264</v>
-      </c>
-      <c r="K29" t="s">
-        <v>265</v>
-      </c>
-      <c r="L29" t="s">
-        <v>266</v>
-      </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O29" t="s">
-        <v>71</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
+      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>4</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="X29" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="Y29" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30">
@@ -3170,34 +3626,34 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
+        <v>266</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>267</v>
+      </c>
+      <c r="J30" t="s">
         <v>268</v>
       </c>
-      <c r="G30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="K30" t="s">
         <v>269</v>
       </c>
-      <c r="J30" t="s">
+      <c r="L30" t="s">
         <v>270</v>
       </c>
-      <c r="K30" t="s">
-        <v>271</v>
-      </c>
-      <c r="L30" t="s">
-        <v>272</v>
-      </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="O30" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3209,13 +3665,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="X30" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="Y30" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31">
@@ -3231,7 +3687,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3240,25 +3696,25 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="J31" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="K31" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="O31" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3270,13 +3726,1324 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
+        <v>263</v>
+      </c>
+      <c r="X31" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>278</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>279</v>
+      </c>
+      <c r="J32" t="s">
+        <v>280</v>
+      </c>
+      <c r="K32" t="s">
+        <v>281</v>
+      </c>
+      <c r="L32" t="s">
         <v>282</v>
       </c>
-      <c r="X31" t="s">
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
         <v>283</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="X32" t="s">
         <v>284</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>286</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>287</v>
+      </c>
+      <c r="J33" t="s">
+        <v>288</v>
+      </c>
+      <c r="K33" t="s">
+        <v>289</v>
+      </c>
+      <c r="L33" t="s">
+        <v>290</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>291</v>
+      </c>
+      <c r="O33" t="s">
+        <v>68</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>283</v>
+      </c>
+      <c r="X33" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>293</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>294</v>
+      </c>
+      <c r="J34" t="s">
+        <v>295</v>
+      </c>
+      <c r="K34" t="s">
+        <v>296</v>
+      </c>
+      <c r="L34" t="s">
+        <v>297</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>298</v>
+      </c>
+      <c r="O34" t="s">
+        <v>68</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>299</v>
+      </c>
+      <c r="X34" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>302</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>303</v>
+      </c>
+      <c r="J35" t="s">
+        <v>304</v>
+      </c>
+      <c r="K35" t="s">
+        <v>305</v>
+      </c>
+      <c r="L35" t="s">
+        <v>306</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>307</v>
+      </c>
+      <c r="O35" t="s">
+        <v>61</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>308</v>
+      </c>
+      <c r="X35" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>311</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>312</v>
+      </c>
+      <c r="J36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K36" t="s">
+        <v>314</v>
+      </c>
+      <c r="L36" t="s">
+        <v>315</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>316</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>317</v>
+      </c>
+      <c r="X36" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>320</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>321</v>
+      </c>
+      <c r="J37" t="s">
+        <v>322</v>
+      </c>
+      <c r="K37" t="s">
+        <v>323</v>
+      </c>
+      <c r="L37" t="s">
+        <v>324</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>325</v>
+      </c>
+      <c r="O37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>326</v>
+      </c>
+      <c r="X37" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>329</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>330</v>
+      </c>
+      <c r="J38" t="s">
+        <v>331</v>
+      </c>
+      <c r="K38" t="s">
+        <v>332</v>
+      </c>
+      <c r="L38" t="s">
+        <v>333</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>326</v>
+      </c>
+      <c r="X38" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>335</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>336</v>
+      </c>
+      <c r="J39" t="s">
+        <v>337</v>
+      </c>
+      <c r="K39" t="s">
+        <v>338</v>
+      </c>
+      <c r="L39" t="s">
+        <v>339</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>340</v>
+      </c>
+      <c r="O39" t="s">
+        <v>68</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>326</v>
+      </c>
+      <c r="X39" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>342</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>343</v>
+      </c>
+      <c r="J40" t="s">
+        <v>344</v>
+      </c>
+      <c r="K40" t="s">
+        <v>255</v>
+      </c>
+      <c r="L40" t="s">
+        <v>345</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>346</v>
+      </c>
+      <c r="O40" t="s">
+        <v>68</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>326</v>
+      </c>
+      <c r="X40" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>348</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>349</v>
+      </c>
+      <c r="J41" t="s">
+        <v>350</v>
+      </c>
+      <c r="K41" t="s">
+        <v>351</v>
+      </c>
+      <c r="L41" t="s">
+        <v>352</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>346</v>
+      </c>
+      <c r="O41" t="s">
+        <v>68</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>326</v>
+      </c>
+      <c r="X41" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>354</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>355</v>
+      </c>
+      <c r="J42" t="s">
+        <v>356</v>
+      </c>
+      <c r="K42" t="s">
+        <v>357</v>
+      </c>
+      <c r="L42" t="s">
+        <v>358</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>359</v>
+      </c>
+      <c r="O42" t="s">
+        <v>68</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>360</v>
+      </c>
+      <c r="X42" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>363</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>364</v>
+      </c>
+      <c r="J43" t="s">
+        <v>365</v>
+      </c>
+      <c r="K43" t="s">
+        <v>366</v>
+      </c>
+      <c r="L43" t="s">
+        <v>367</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>368</v>
+      </c>
+      <c r="O43" t="s">
+        <v>68</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>369</v>
+      </c>
+      <c r="X43" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>372</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>373</v>
+      </c>
+      <c r="J44" t="s">
+        <v>374</v>
+      </c>
+      <c r="K44" t="s">
+        <v>375</v>
+      </c>
+      <c r="L44" t="s">
+        <v>376</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>340</v>
+      </c>
+      <c r="O44" t="s">
+        <v>68</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>377</v>
+      </c>
+      <c r="X44" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>380</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>381</v>
+      </c>
+      <c r="J45" t="s">
+        <v>382</v>
+      </c>
+      <c r="K45" t="s">
+        <v>383</v>
+      </c>
+      <c r="L45" t="s">
+        <v>384</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>385</v>
+      </c>
+      <c r="O45" t="s">
+        <v>61</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>386</v>
+      </c>
+      <c r="X45" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>389</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>390</v>
+      </c>
+      <c r="J46" t="s">
+        <v>391</v>
+      </c>
+      <c r="K46" t="s">
+        <v>392</v>
+      </c>
+      <c r="L46" t="s">
+        <v>393</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>386</v>
+      </c>
+      <c r="X46" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>395</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>396</v>
+      </c>
+      <c r="J47" t="s">
+        <v>397</v>
+      </c>
+      <c r="K47" t="s">
+        <v>398</v>
+      </c>
+      <c r="L47" t="s">
+        <v>399</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>385</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>386</v>
+      </c>
+      <c r="X47" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>401</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>402</v>
+      </c>
+      <c r="J48" t="s">
+        <v>403</v>
+      </c>
+      <c r="K48" t="s">
+        <v>404</v>
+      </c>
+      <c r="L48" t="s">
+        <v>405</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>406</v>
+      </c>
+      <c r="O48" t="s">
+        <v>68</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>386</v>
+      </c>
+      <c r="X48" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>408</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>409</v>
+      </c>
+      <c r="J49" t="s">
+        <v>410</v>
+      </c>
+      <c r="K49" t="s">
+        <v>411</v>
+      </c>
+      <c r="L49" t="s">
+        <v>412</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>385</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>386</v>
+      </c>
+      <c r="X49" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>414</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>415</v>
+      </c>
+      <c r="J50" t="s">
+        <v>416</v>
+      </c>
+      <c r="K50" t="s">
+        <v>417</v>
+      </c>
+      <c r="L50" t="s">
+        <v>418</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>419</v>
+      </c>
+      <c r="O50" t="s">
+        <v>187</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>420</v>
+      </c>
+      <c r="X50" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>423</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>424</v>
+      </c>
+      <c r="J51" t="s">
+        <v>425</v>
+      </c>
+      <c r="K51" t="s">
+        <v>426</v>
+      </c>
+      <c r="L51" t="s">
+        <v>427</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>419</v>
+      </c>
+      <c r="O51" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>428</v>
+      </c>
+      <c r="X51" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>63685</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>431</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>432</v>
+      </c>
+      <c r="J52" t="s">
+        <v>433</v>
+      </c>
+      <c r="K52" t="s">
+        <v>434</v>
+      </c>
+      <c r="L52" t="s">
+        <v>435</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>406</v>
+      </c>
+      <c r="O52" t="s">
+        <v>68</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>428</v>
+      </c>
+      <c r="X52" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>
